--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="460" windowWidth="22780" windowHeight="16420" activeTab="1"/>
+    <workbookView xWindow="6720" yWindow="460" windowWidth="22780" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Phoenix</t>
   </si>
@@ -628,11 +628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -901,12 +906,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="23.3984375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="26.19921875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
@@ -944,7 +951,9 @@
       <c r="E2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/nccbp/data/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/envisio/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="460" windowWidth="22780" windowHeight="16420"/>
+    <workbookView xWindow="6020" yWindow="460" windowWidth="22780" windowHeight="16420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>Phoenix</t>
   </si>
@@ -218,6 +218,126 @@
   </si>
   <si>
     <t>policecalls1</t>
+  </si>
+  <si>
+    <t>7:18</t>
+  </si>
+  <si>
+    <t>3:58</t>
+  </si>
+  <si>
+    <t>4:57</t>
+  </si>
+  <si>
+    <t>4:30</t>
+  </si>
+  <si>
+    <t>5:52</t>
+  </si>
+  <si>
+    <t>5:01</t>
+  </si>
+  <si>
+    <t>5:56</t>
+  </si>
+  <si>
+    <t>4:48</t>
+  </si>
+  <si>
+    <t>5:26</t>
+  </si>
+  <si>
+    <t>5:47</t>
+  </si>
+  <si>
+    <t>4:07</t>
+  </si>
+  <si>
+    <t>7:34</t>
+  </si>
+  <si>
+    <t>6:15</t>
+  </si>
+  <si>
+    <t>4:18</t>
+  </si>
+  <si>
+    <t>4:42</t>
+  </si>
+  <si>
+    <t>4:05</t>
+  </si>
+  <si>
+    <t>4:49</t>
+  </si>
+  <si>
+    <t>6:26</t>
+  </si>
+  <si>
+    <t>5:32</t>
+  </si>
+  <si>
+    <t>5:25</t>
+  </si>
+  <si>
+    <t>4:44</t>
+  </si>
+  <si>
+    <t>6:23</t>
+  </si>
+  <si>
+    <t>6:14</t>
+  </si>
+  <si>
+    <t>4:59</t>
+  </si>
+  <si>
+    <t>5:03</t>
+  </si>
+  <si>
+    <t>5:05</t>
+  </si>
+  <si>
+    <t>5:34</t>
+  </si>
+  <si>
+    <t>5:28</t>
+  </si>
+  <si>
+    <t>4:13</t>
+  </si>
+  <si>
+    <t>4:23</t>
+  </si>
+  <si>
+    <t>6:25</t>
+  </si>
+  <si>
+    <t>4:53</t>
+  </si>
+  <si>
+    <t>5:09</t>
+  </si>
+  <si>
+    <t>3:30</t>
+  </si>
+  <si>
+    <t>4:00</t>
+  </si>
+  <si>
+    <t>6:41</t>
+  </si>
+  <si>
+    <t>5:50</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>4:36</t>
+  </si>
+  <si>
+    <t>6:36</t>
   </si>
 </sst>
 </file>
@@ -323,7 +443,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -340,6 +460,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -628,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,14 +805,14 @@
       <c r="B3" s="10">
         <v>100000</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.30416666666666664</v>
+      <c r="C3" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.31527777777777777</v>
+      <c r="E3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="4">
         <v>0.69</v>
@@ -703,14 +825,14 @@
       <c r="B4" s="10">
         <v>100001</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.16527777777777777</v>
+      <c r="C4" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.26041666666666669</v>
+      <c r="E4" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="F4" s="4">
         <v>0.59</v>
@@ -723,14 +845,14 @@
       <c r="B5" s="10">
         <v>100002</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.20625000000000002</v>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="4">
         <v>6.88E-2</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.17916666666666667</v>
+      <c r="E5" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="F5" s="4">
         <v>0.27</v>
@@ -743,14 +865,14 @@
       <c r="B6" s="10">
         <v>100003</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.1875</v>
+      <c r="C6" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="D6" s="4">
         <v>0.16889999999999999</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.19583333333333333</v>
+      <c r="E6" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="F6" s="4">
         <v>0.6</v>
@@ -763,14 +885,14 @@
       <c r="B7" s="10">
         <v>100004</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.24444444444444446</v>
+      <c r="C7" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="4">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.17013888888888887</v>
+      <c r="E7" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="F7" s="4">
         <v>0.89</v>
@@ -783,14 +905,14 @@
       <c r="B8" s="10">
         <v>100005</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.20902777777777778</v>
+      <c r="C8" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D8" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.20069444444444443</v>
+      <c r="E8" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="F8" s="4">
         <v>0.56000000000000005</v>
@@ -803,14 +925,14 @@
       <c r="B9" s="10">
         <v>100006</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.24722222222222223</v>
+      <c r="C9" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.26805555555555555</v>
+      <c r="E9" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="F9" s="4">
         <v>0.33</v>
@@ -823,14 +945,14 @@
       <c r="B10" s="10">
         <v>100007</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.19999999999999998</v>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>0.1149</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.23055555555555554</v>
+      <c r="E10" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="F10" s="4">
         <v>0.41</v>
@@ -843,14 +965,14 @@
       <c r="B11" s="10">
         <v>100008</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.22638888888888889</v>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="D11" s="4">
         <v>0.12659999999999999</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.22569444444444445</v>
+      <c r="E11" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="F11" s="4">
         <v>1.05</v>
@@ -863,14 +985,14 @@
       <c r="B12" s="10">
         <v>100009</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.24097222222222223</v>
+      <c r="C12" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="4">
         <v>0.1132</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.19722222222222222</v>
+      <c r="E12" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="4">
         <v>0.31</v>
@@ -883,14 +1005,14 @@
       <c r="B13" s="10">
         <v>100010</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.17152777777777775</v>
+      <c r="C13" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="4">
         <v>0.1487</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.26597222222222222</v>
+      <c r="E13" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="4">
         <v>0.92</v>
@@ -906,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -916,6 +1038,7 @@
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="26.19921875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,14 +1085,14 @@
       <c r="B3" s="10">
         <v>100000</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.25972222222222224</v>
+      <c r="C3" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D3" s="4">
         <v>0.121</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.18263888888888891</v>
+      <c r="E3" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="4">
         <v>0.71</v>
@@ -982,14 +1105,14 @@
       <c r="B4" s="10">
         <v>100001</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.16527777777777777</v>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="4">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.26041666666666669</v>
+      <c r="E4" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F4" s="4">
         <v>0.56000000000000005</v>
@@ -1002,14 +1125,14 @@
       <c r="B5" s="10">
         <v>100002</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.2076388888888889</v>
+      <c r="C5" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.20347222222222219</v>
+      <c r="E5" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="F5" s="4">
         <v>0.27</v>
@@ -1022,14 +1145,14 @@
       <c r="B6" s="10">
         <v>100003</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.19722222222222222</v>
+      <c r="C6" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="4">
         <v>0.12039999999999999</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.21458333333333335</v>
+      <c r="E6" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F6" s="4">
         <v>0.76</v>
@@ -1042,14 +1165,14 @@
       <c r="B7" s="10">
         <v>100004</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.21041666666666667</v>
+      <c r="C7" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D7" s="4">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.14583333333333334</v>
+      <c r="E7" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="F7" s="4">
         <v>1.51</v>
@@ -1062,14 +1185,14 @@
       <c r="B8" s="10">
         <v>100005</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.21180555555555555</v>
+      <c r="C8" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="4">
         <v>0.1263</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.16666666666666666</v>
+      <c r="E8" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F8" s="4">
         <v>0.64</v>
@@ -1082,14 +1205,14 @@
       <c r="B9" s="10">
         <v>100006</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.23194444444444443</v>
+      <c r="C9" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="4">
         <v>0.1022</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.27847222222222223</v>
+      <c r="E9" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="4">
         <v>0.31</v>
@@ -1102,14 +1225,14 @@
       <c r="B10" s="10">
         <v>100007</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.19999999999999998</v>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>0.1149</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.24305555555555555</v>
+      <c r="E10" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F10" s="4">
         <v>0.43</v>
@@ -1122,14 +1245,14 @@
       <c r="B11" s="10">
         <v>100008</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.22569444444444445</v>
+      <c r="C11" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="4">
         <v>0.1434</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.21666666666666667</v>
+      <c r="E11" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F11" s="4">
         <v>1.05</v>
@@ -1142,14 +1265,14 @@
       <c r="B12" s="10">
         <v>100009</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.22777777777777777</v>
+      <c r="C12" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.19166666666666665</v>
+      <c r="E12" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="F12" s="4">
         <v>0.31</v>
@@ -1162,14 +1285,14 @@
       <c r="B13" s="10">
         <v>100010</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.17569444444444446</v>
+      <c r="C13" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="4">
         <v>0.13789999999999999</v>
       </c>
-      <c r="E13" s="4">
-        <v>0.27499999999999997</v>
+      <c r="E13" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="F13" s="4">
         <v>0.88</v>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="460" windowWidth="22780" windowHeight="16420" activeTab="1"/>
+    <workbookView xWindow="6020" yWindow="460" windowWidth="22780" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="11" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="460" windowWidth="22780" windowHeight="16420"/>
+    <workbookView xWindow="6020" yWindow="460" windowWidth="22780" windowHeight="16420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t>Phoenix</t>
   </si>
@@ -338,6 +338,21 @@
   </si>
   <si>
     <t>6:36</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB+</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>AA+</t>
   </si>
 </sst>
 </file>
@@ -750,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1026,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1056,7 @@
     <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1060,8 +1075,11 @@
       <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
@@ -1077,8 +1095,11 @@
       <c r="F2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1097,8 +1118,11 @@
       <c r="F3" s="4">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1117,8 +1141,11 @@
       <c r="F4" s="4">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1137,8 +1164,11 @@
       <c r="F5" s="4">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="F6" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1210,11 @@
       <c r="F7" s="4">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1197,8 +1233,11 @@
       <c r="F8" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,8 +1256,11 @@
       <c r="F9" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1279,11 @@
       <c r="F10" s="4">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1257,8 +1302,11 @@
       <c r="F11" s="4">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1277,8 +1325,11 @@
       <c r="F12" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1296,6 +1347,9 @@
       </c>
       <c r="F13" s="4">
         <v>0.88</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Phoenix</t>
   </si>
@@ -284,75 +284,6 @@
   </si>
   <si>
     <t>6:23</t>
-  </si>
-  <si>
-    <t>6:14</t>
-  </si>
-  <si>
-    <t>4:59</t>
-  </si>
-  <si>
-    <t>5:03</t>
-  </si>
-  <si>
-    <t>5:05</t>
-  </si>
-  <si>
-    <t>5:34</t>
-  </si>
-  <si>
-    <t>5:28</t>
-  </si>
-  <si>
-    <t>4:13</t>
-  </si>
-  <si>
-    <t>4:23</t>
-  </si>
-  <si>
-    <t>6:25</t>
-  </si>
-  <si>
-    <t>4:53</t>
-  </si>
-  <si>
-    <t>5:09</t>
-  </si>
-  <si>
-    <t>3:30</t>
-  </si>
-  <si>
-    <t>4:00</t>
-  </si>
-  <si>
-    <t>6:41</t>
-  </si>
-  <si>
-    <t>5:50</t>
-  </si>
-  <si>
-    <t>5:12</t>
-  </si>
-  <si>
-    <t>4:36</t>
-  </si>
-  <si>
-    <t>6:36</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>BBB+</t>
-  </si>
-  <si>
-    <t>AA-</t>
-  </si>
-  <si>
-    <t>AA+</t>
   </si>
 </sst>
 </file>
@@ -458,7 +389,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -475,7 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -820,13 +750,13 @@
       <c r="B3" s="10">
         <v>100000</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="4">
@@ -840,13 +770,13 @@
       <c r="B4" s="10">
         <v>100001</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="4">
@@ -860,13 +790,13 @@
       <c r="B5" s="10">
         <v>100002</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="4">
         <v>6.88E-2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>76</v>
       </c>
       <c r="F5" s="4">
@@ -880,13 +810,13 @@
       <c r="B6" s="10">
         <v>100003</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="4">
         <v>0.16889999999999999</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="4">
@@ -900,13 +830,13 @@
       <c r="B7" s="10">
         <v>100004</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="4">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="4">
@@ -920,13 +850,13 @@
       <c r="B8" s="10">
         <v>100005</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="4">
@@ -940,13 +870,13 @@
       <c r="B9" s="10">
         <v>100006</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="4">
@@ -960,13 +890,13 @@
       <c r="B10" s="10">
         <v>100007</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>0.1149</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="4">
@@ -980,13 +910,13 @@
       <c r="B11" s="10">
         <v>100008</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="4">
         <v>0.12659999999999999</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="4">
@@ -1000,13 +930,13 @@
       <c r="B12" s="10">
         <v>100009</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="4">
         <v>0.1132</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="4">
@@ -1020,13 +950,13 @@
       <c r="B13" s="10">
         <v>100010</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="4">
         <v>0.1487</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="4">
@@ -1044,7 +974,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,40 +994,31 @@
         <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1106,21 +1027,17 @@
       <c r="B3" s="10">
         <v>100000</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>85</v>
+      <c r="C3" s="4">
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>0.121</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1129,21 +1046,17 @@
       <c r="B4" s="10">
         <v>100001</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>64</v>
+      <c r="C4" s="4">
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>9.1399999999999995E-2</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>59.2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1152,21 +1065,17 @@
       <c r="B5" s="10">
         <v>100002</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>86</v>
+      <c r="C5" s="4">
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1175,21 +1084,17 @@
       <c r="B6" s="10">
         <v>100003</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>83</v>
+      <c r="C6" s="4">
+        <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.12039999999999999</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1198,21 +1103,17 @@
       <c r="B7" s="10">
         <v>100004</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>87</v>
+      <c r="C7" s="4">
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.51</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1221,21 +1122,17 @@
       <c r="B8" s="10">
         <v>100005</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>88</v>
+      <c r="C8" s="4">
+        <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>0.1263</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>54</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1244,21 +1141,17 @@
       <c r="B9" s="10">
         <v>100006</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>89</v>
+      <c r="C9" s="4">
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0.1022</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>1.19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1267,21 +1160,17 @@
       <c r="B10" s="10">
         <v>100007</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>70</v>
+      <c r="C10" s="4">
+        <v>17</v>
       </c>
       <c r="D10" s="4">
-        <v>0.1149</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46.1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1290,21 +1179,17 @@
       <c r="B11" s="10">
         <v>100008</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>82</v>
+      <c r="C11" s="4">
+        <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>0.1434</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1313,21 +1198,17 @@
       <c r="B12" s="10">
         <v>100009</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>90</v>
+      <c r="C12" s="4">
+        <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1336,21 +1217,17 @@
       <c r="B13" s="10">
         <v>100010</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>91</v>
+      <c r="C13" s="4">
+        <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>0.13789999999999999</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>Phoenix</t>
   </si>
@@ -974,7 +974,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C1" sqref="C1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -994,29 +994,34 @@
         <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>46</v>
+      <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1028,15 +1033,17 @@
         <v>100000</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="4">
-        <v>2.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E3" s="4">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1047,15 +1054,17 @@
         <v>100001</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="D4" s="4">
-        <v>1.6</v>
+        <v>23.3</v>
       </c>
       <c r="E4" s="4">
-        <v>59.2</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.18</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1066,15 +1075,17 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="4">
-        <v>0.8</v>
+        <v>14.8</v>
       </c>
       <c r="E5" s="4">
-        <v>58.5</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.249</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1085,15 +1096,17 @@
         <v>100003</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>4.18</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3</v>
+        <v>57.5</v>
       </c>
       <c r="E6" s="4">
-        <v>35.6</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>0.377</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,15 +1117,17 @@
         <v>100004</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="D7" s="4">
-        <v>1.3</v>
+        <v>21.2</v>
       </c>
       <c r="E7" s="4">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>0.44</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.17</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,15 +1138,17 @@
         <v>100005</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D8" s="4">
-        <v>0.9</v>
+        <v>28.6</v>
       </c>
       <c r="E8" s="4">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.33</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1142,15 +1159,17 @@
         <v>100006</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="D9" s="4">
-        <v>1.19</v>
+        <v>19.7</v>
       </c>
       <c r="E9" s="4">
-        <v>63.8</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.21</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1161,15 +1180,17 @@
         <v>100007</v>
       </c>
       <c r="C10" s="4">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="D10" s="4">
-        <v>1.1000000000000001</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E10" s="4">
-        <v>46.1</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.17</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,15 +1201,17 @@
         <v>100008</v>
       </c>
       <c r="C11" s="4">
-        <v>5</v>
+        <v>1.63</v>
       </c>
       <c r="D11" s="4">
-        <v>2.2999999999999998</v>
+        <v>23.9</v>
       </c>
       <c r="E11" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.27</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,15 +1222,17 @@
         <v>100009</v>
       </c>
       <c r="C12" s="4">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D12" s="4">
-        <v>1.7</v>
+        <v>22.3</v>
       </c>
       <c r="E12" s="4">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.21299999999999999</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1218,15 +1243,17 @@
         <v>100010</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>4.71</v>
       </c>
       <c r="D13" s="4">
-        <v>0.6</v>
+        <v>47.7</v>
       </c>
       <c r="E13" s="4">
-        <v>56</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.11799999999999999</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
   </sheetData>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>Phoenix</t>
   </si>
@@ -971,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
     <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -994,38 +994,66 @@
         <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>61</v>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1033,20 +1061,34 @@
         <v>100000</v>
       </c>
       <c r="C3" s="4">
-        <v>3.5</v>
+        <v>221</v>
       </c>
       <c r="D3" s="4">
-        <v>38.799999999999997</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
-        <v>0.38</v>
+        <v>57.16</v>
       </c>
       <c r="F3" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44.29</v>
+      </c>
+      <c r="G3" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>31.61</v>
+      </c>
+      <c r="I3" s="4">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="K3" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,20 +1096,34 @@
         <v>100001</v>
       </c>
       <c r="C4" s="4">
-        <v>1.9</v>
+        <v>498</v>
       </c>
       <c r="D4" s="4">
-        <v>23.3</v>
+        <v>5.2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.39</v>
+        <v>43.47</v>
       </c>
       <c r="F4" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26.35</v>
+      </c>
+      <c r="G4" s="4">
+        <v>24.51</v>
+      </c>
+      <c r="H4" s="4">
+        <v>26.35</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15.97</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,20 +1131,34 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4">
-        <v>0.9</v>
+        <v>257</v>
       </c>
       <c r="D5" s="4">
-        <v>14.8</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="4">
-        <v>0.58599999999999997</v>
+        <v>40.67</v>
       </c>
       <c r="F5" s="4">
-        <v>0.249</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30.78</v>
+      </c>
+      <c r="G5" s="4">
+        <v>24.35</v>
+      </c>
+      <c r="H5" s="4">
+        <v>25.82</v>
+      </c>
+      <c r="I5" s="4">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,20 +1166,34 @@
         <v>100003</v>
       </c>
       <c r="C6" s="4">
-        <v>4.18</v>
+        <v>843</v>
       </c>
       <c r="D6" s="4">
-        <v>57.5</v>
+        <v>19.7</v>
       </c>
       <c r="E6" s="4">
-        <v>0.377</v>
+        <v>61.88</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51.92</v>
+      </c>
+      <c r="G6" s="4">
+        <v>33.18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>37.68</v>
+      </c>
+      <c r="I6" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="K6" s="4">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,20 +1201,34 @@
         <v>100004</v>
       </c>
       <c r="C7" s="4">
-        <v>1.49</v>
+        <v>451</v>
       </c>
       <c r="D7" s="4">
-        <v>21.2</v>
+        <v>9.1</v>
       </c>
       <c r="E7" s="4">
-        <v>0.44</v>
+        <v>70.34</v>
       </c>
       <c r="F7" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104.78</v>
+      </c>
+      <c r="G7" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="I7" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.248</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,20 +1236,34 @@
         <v>100005</v>
       </c>
       <c r="C8" s="4">
-        <v>4.6500000000000004</v>
+        <v>399.6</v>
       </c>
       <c r="D8" s="4">
-        <v>28.6</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
-        <v>0.48099999999999998</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="F8" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49.17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46.63</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43.53</v>
+      </c>
+      <c r="I8" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="K8" s="4">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,20 +1271,34 @@
         <v>100006</v>
       </c>
       <c r="C9" s="4">
-        <v>1.46</v>
+        <v>924</v>
       </c>
       <c r="D9" s="4">
-        <v>19.7</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4">
-        <v>0.6</v>
+        <v>66.02</v>
       </c>
       <c r="F9" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>25.37</v>
+      </c>
+      <c r="I9" s="4">
+        <v>13.38</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,20 +1306,34 @@
         <v>100007</v>
       </c>
       <c r="C10" s="4">
-        <v>5.9</v>
+        <v>284</v>
       </c>
       <c r="D10" s="4">
-        <v>38.799999999999997</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4">
-        <v>0.32900000000000001</v>
+        <v>63.85</v>
       </c>
       <c r="F10" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="G10" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>26.04</v>
+      </c>
+      <c r="I10" s="4">
+        <v>26.85</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1201,20 +1341,34 @@
         <v>100008</v>
       </c>
       <c r="C11" s="4">
-        <v>1.63</v>
+        <v>443</v>
       </c>
       <c r="D11" s="4">
-        <v>23.9</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4">
-        <v>0.57999999999999996</v>
+        <v>66.45</v>
       </c>
       <c r="F11" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34.56</v>
+      </c>
+      <c r="G11" s="4">
+        <v>34.15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="I11" s="4">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1222,20 +1376,34 @@
         <v>100009</v>
       </c>
       <c r="C12" s="4">
-        <v>1.6</v>
+        <v>328</v>
       </c>
       <c r="D12" s="4">
-        <v>22.3</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4">
-        <v>0.57899999999999996</v>
+        <v>74.06</v>
       </c>
       <c r="F12" s="4">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24.78</v>
+      </c>
+      <c r="G12" s="4">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <v>24.78</v>
+      </c>
+      <c r="I12" s="4">
+        <v>16.63</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1243,18 +1411,32 @@
         <v>100010</v>
       </c>
       <c r="C13" s="4">
-        <v>4.71</v>
+        <v>709</v>
       </c>
       <c r="D13" s="4">
-        <v>47.7</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4">
-        <v>0.31900000000000001</v>
+        <v>64.48</v>
       </c>
       <c r="F13" s="4">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>47.18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="H13" s="4">
+        <v>28.71</v>
+      </c>
+      <c r="I13" s="4">
+        <v>19.98</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="4">
+        <v>9.36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>Phoenix</t>
   </si>
@@ -971,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
     <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1020,8 +1020,11 @@
       <c r="K1" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
@@ -1052,8 +1055,11 @@
       <c r="K2" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1093,11 @@
       <c r="K3" s="4">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1122,8 +1131,11 @@
       <c r="K4" s="4">
         <v>6.56</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1169,11 @@
       <c r="K5" s="4">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1207,11 @@
       <c r="K6" s="4">
         <v>7.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="4">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1245,11 @@
       <c r="K7" s="4">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1262,8 +1283,11 @@
       <c r="K8" s="4">
         <v>8.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="4">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1297,8 +1321,11 @@
       <c r="K9" s="4">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,8 +1359,11 @@
       <c r="K10" s="4">
         <v>9.82</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1367,8 +1397,11 @@
       <c r="K11" s="4">
         <v>10.72</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1402,8 +1435,11 @@
       <c r="K12" s="4">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1436,6 +1472,9 @@
       </c>
       <c r="K13" s="4">
         <v>9.36</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4.71</v>
       </c>
     </row>
   </sheetData>

--- a/data/imports/envisio-import-safety.xlsx
+++ b/data/imports/envisio-import-safety.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Phoenix</t>
   </si>
@@ -290,9 +290,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -380,7 +382,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,8 +390,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -407,14 +411,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -974,7 +982,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -994,70 +1002,42 @@
         <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>48</v>
+      <c r="C2" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1066,36 +1046,22 @@
       <c r="B3" s="10">
         <v>100000</v>
       </c>
-      <c r="C3" s="4">
-        <v>221</v>
-      </c>
-      <c r="D3" s="4">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>57.16</v>
-      </c>
-      <c r="F3" s="4">
-        <v>44.29</v>
-      </c>
-      <c r="G3" s="4">
-        <v>22.18</v>
-      </c>
-      <c r="H3" s="4">
-        <v>31.61</v>
-      </c>
-      <c r="I3" s="4">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="K3" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>3.5</v>
-      </c>
+      <c r="C3" s="2">
+        <v>78090</v>
+      </c>
+      <c r="D3" s="15">
+        <v>55664</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.193</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1104,36 +1070,22 @@
       <c r="B4" s="10">
         <v>100001</v>
       </c>
-      <c r="C4" s="4">
-        <v>498</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43.47</v>
-      </c>
-      <c r="F4" s="4">
-        <v>26.35</v>
-      </c>
-      <c r="G4" s="4">
-        <v>24.51</v>
-      </c>
-      <c r="H4" s="4">
-        <v>26.35</v>
-      </c>
-      <c r="I4" s="4">
-        <v>15.97</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="K4" s="4">
-        <v>6.56</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1.9</v>
-      </c>
+      <c r="C4" s="2">
+        <v>249423</v>
+      </c>
+      <c r="D4" s="15">
+        <v>73062</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.104</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1142,36 +1094,22 @@
       <c r="B5" s="10">
         <v>100002</v>
       </c>
-      <c r="C5" s="4">
-        <v>257</v>
-      </c>
-      <c r="D5" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>40.67</v>
-      </c>
-      <c r="F5" s="4">
-        <v>30.78</v>
-      </c>
-      <c r="G5" s="4">
-        <v>24.35</v>
-      </c>
-      <c r="H5" s="4">
-        <v>25.82</v>
-      </c>
-      <c r="I5" s="4">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.9</v>
-      </c>
+      <c r="C5" s="2">
+        <v>235493</v>
+      </c>
+      <c r="D5" s="15">
+        <v>84153</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1180,36 +1118,22 @@
       <c r="B6" s="10">
         <v>100003</v>
       </c>
-      <c r="C6" s="4">
-        <v>843</v>
-      </c>
-      <c r="D6" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>61.88</v>
-      </c>
-      <c r="F6" s="4">
-        <v>51.92</v>
-      </c>
-      <c r="G6" s="4">
-        <v>33.18</v>
-      </c>
-      <c r="H6" s="4">
-        <v>37.68</v>
-      </c>
-      <c r="I6" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="K6" s="4">
-        <v>7.42</v>
-      </c>
-      <c r="L6" s="4">
-        <v>4.18</v>
-      </c>
+      <c r="C6" s="2">
+        <v>232680</v>
+      </c>
+      <c r="D6" s="15">
+        <v>46453</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1218,36 +1142,22 @@
       <c r="B7" s="10">
         <v>100004</v>
       </c>
-      <c r="C7" s="4">
-        <v>451</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>70.34</v>
-      </c>
-      <c r="F7" s="4">
-        <v>104.78</v>
-      </c>
-      <c r="G7" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>69.349999999999994</v>
-      </c>
-      <c r="I7" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.248</v>
-      </c>
-      <c r="K7" s="4">
-        <v>6.91</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1.49</v>
-      </c>
+      <c r="C7" s="2">
+        <v>74743</v>
+      </c>
+      <c r="D7" s="15">
+        <v>69883</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.121</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1256,36 +1166,22 @@
       <c r="B8" s="10">
         <v>100005</v>
       </c>
-      <c r="C8" s="4">
-        <v>399.6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4">
-        <v>77.650000000000006</v>
-      </c>
-      <c r="F8" s="4">
-        <v>49.17</v>
-      </c>
-      <c r="G8" s="4">
-        <v>46.63</v>
-      </c>
-      <c r="H8" s="4">
-        <v>43.53</v>
-      </c>
-      <c r="I8" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="K8" s="4">
-        <v>8.32</v>
-      </c>
-      <c r="L8" s="4">
-        <v>4.6500000000000004</v>
-      </c>
+      <c r="C8" s="2">
+        <v>455567</v>
+      </c>
+      <c r="D8" s="15">
+        <v>47675</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.151</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1294,36 +1190,22 @@
       <c r="B9" s="10">
         <v>100006</v>
       </c>
-      <c r="C9" s="4">
-        <v>924</v>
-      </c>
-      <c r="D9" s="4">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>66.02</v>
-      </c>
-      <c r="F9" s="4">
-        <v>33.729999999999997</v>
-      </c>
-      <c r="G9" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>25.37</v>
-      </c>
-      <c r="I9" s="4">
-        <v>13.38</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="K9" s="4">
-        <v>6.55</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1.46</v>
-      </c>
+      <c r="C9" s="2">
+        <v>163832</v>
+      </c>
+      <c r="D9" s="15">
+        <v>66371</v>
+      </c>
+      <c r="E9" s="16">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1332,36 +1214,22 @@
       <c r="B10" s="10">
         <v>100007</v>
       </c>
-      <c r="C10" s="4">
-        <v>284</v>
-      </c>
-      <c r="D10" s="4">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4">
-        <v>63.85</v>
-      </c>
-      <c r="F10" s="4">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="G10" s="4">
-        <v>24.1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>26.04</v>
-      </c>
-      <c r="I10" s="4">
-        <v>26.85</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>9.82</v>
-      </c>
-      <c r="L10" s="4">
-        <v>5.9</v>
-      </c>
+      <c r="C10" s="2">
+        <v>1506439</v>
+      </c>
+      <c r="D10" s="15">
+        <v>47929</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1370,36 +1238,22 @@
       <c r="B11" s="10">
         <v>100008</v>
       </c>
-      <c r="C11" s="4">
-        <v>443</v>
-      </c>
-      <c r="D11" s="4">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4">
-        <v>66.45</v>
-      </c>
-      <c r="F11" s="4">
-        <v>34.56</v>
-      </c>
-      <c r="G11" s="4">
-        <v>34.15</v>
-      </c>
-      <c r="H11" s="4">
-        <v>24.04</v>
-      </c>
-      <c r="I11" s="4">
-        <v>16</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10.72</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1.63</v>
-      </c>
+      <c r="C11" s="2">
+        <v>225698</v>
+      </c>
+      <c r="D11" s="15">
+        <v>73387</v>
+      </c>
+      <c r="E11" s="16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1408,36 +1262,22 @@
       <c r="B12" s="10">
         <v>100009</v>
       </c>
-      <c r="C12" s="4">
-        <v>328</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>74.06</v>
-      </c>
-      <c r="F12" s="4">
-        <v>24.78</v>
-      </c>
-      <c r="G12" s="4">
-        <v>39.549999999999997</v>
-      </c>
-      <c r="H12" s="4">
-        <v>24.78</v>
-      </c>
-      <c r="I12" s="4">
-        <v>16.63</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="K12" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1.6</v>
-      </c>
+      <c r="C12" s="2">
+        <v>123797</v>
+      </c>
+      <c r="D12" s="15">
+        <v>58923</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.122</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1446,39 +1286,26 @@
       <c r="B13" s="10">
         <v>100010</v>
       </c>
-      <c r="C13" s="4">
-        <v>709</v>
-      </c>
-      <c r="D13" s="4">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4">
-        <v>64.48</v>
-      </c>
-      <c r="F13" s="4">
-        <v>47.18</v>
-      </c>
-      <c r="G13" s="4">
-        <v>33.159999999999997</v>
-      </c>
-      <c r="H13" s="4">
-        <v>28.71</v>
-      </c>
-      <c r="I13" s="4">
-        <v>19.98</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="K13" s="4">
-        <v>9.36</v>
-      </c>
-      <c r="L13" s="4">
-        <v>4.71</v>
-      </c>
+      <c r="C13" s="2">
+        <v>169529</v>
+      </c>
+      <c r="D13" s="15">
+        <v>47118</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
